--- a/questions.xlsx
+++ b/questions.xlsx
@@ -41,54 +41,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>理解组织及其环境</t>
-  </si>
-  <si>
-    <t>理解相关方的需求和期望</t>
-  </si>
-  <si>
-    <t>确定质量管理体系的范围</t>
-  </si>
-  <si>
-    <t>质量管理体系及其过程</t>
-  </si>
-  <si>
-    <t>领导作用-总则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以顾客为关注焦点</t>
-  </si>
-  <si>
-    <t>制定质量方针</t>
-  </si>
-  <si>
-    <t>应对风险和机遇的措施</t>
-  </si>
-  <si>
-    <t>质量目标及其实现的策划</t>
-  </si>
-  <si>
-    <t>变更的策划</t>
-  </si>
-  <si>
-    <t>支持-总则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行策划和控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监视、测量、分析和评价</t>
-  </si>
-  <si>
-    <t>持续改进-总则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Understand the organization and its environment</t>
+  </si>
+  <si>
+    <t>Understand the needs and expectations of interested parties</t>
+  </si>
+  <si>
+    <t>Determine the scope of the quality management system</t>
+  </si>
+  <si>
+    <t>Quality management system and its process</t>
+  </si>
+  <si>
+    <t>Leadership - General</t>
+  </si>
+  <si>
+    <t>customer-focused</t>
+  </si>
+  <si>
+    <t>Develop a quality policy</t>
+  </si>
+  <si>
+    <t>Measures to address risks and opportunities</t>
+  </si>
+  <si>
+    <t>Quality objectives and planning for their realization</t>
+  </si>
+  <si>
+    <t>Planning of change</t>
+  </si>
+  <si>
+    <t>Support - general</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>Operation planning and control</t>
+  </si>
+  <si>
+    <t>Monitoring, measuring, analyzing and evaluating</t>
+  </si>
+  <si>
+    <t>Continuous improvement - general</t>
   </si>
 </sst>
 </file>
@@ -415,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
